--- a/Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener.xlsx
+++ b/Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener.xlsx
@@ -54,211 +54,12 @@
   <dc:creator>Philipp W. Kutter</dc:creator>
   <cp:lastModifiedBy>Philipp W. Kutter</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2025-04-08T20:26:03Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2025-05-18T11:13:09Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2025-05-20T05:06:18Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
 <file path=Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener/xl/calcChain.xml><?xml version="1.0" encoding="utf-8"?>
 <calcChain xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <c r="K7" i="1" l="1"/>
-  <c r="K6" i="1"/>
-  <c r="K2" i="1"/>
-  <c r="K3" i="1"/>
-  <c r="K101" i="1"/>
-  <c r="K100" i="1"/>
-  <c r="K99" i="1"/>
-  <c r="K98" i="1"/>
-  <c r="K97" i="1"/>
-  <c r="K96" i="1"/>
-  <c r="K95" i="1"/>
-  <c r="K94" i="1"/>
-  <c r="K93" i="1"/>
-  <c r="K92" i="1"/>
-  <c r="K91" i="1"/>
-  <c r="K90" i="1"/>
-  <c r="K89" i="1"/>
-  <c r="K88" i="1"/>
-  <c r="K87" i="1"/>
-  <c r="K86" i="1"/>
-  <c r="K85" i="1"/>
-  <c r="K84" i="1"/>
-  <c r="K83" i="1"/>
-  <c r="K82" i="1"/>
-  <c r="K81" i="1"/>
-  <c r="K80" i="1"/>
-  <c r="K79" i="1"/>
-  <c r="K78" i="1"/>
-  <c r="K77" i="1"/>
-  <c r="K76" i="1"/>
-  <c r="K75" i="1"/>
-  <c r="K74" i="1"/>
-  <c r="K73" i="1"/>
-  <c r="K72" i="1"/>
-  <c r="K71" i="1"/>
-  <c r="K70" i="1"/>
-  <c r="K69" i="1"/>
-  <c r="K68" i="1"/>
-  <c r="K67" i="1"/>
-  <c r="K66" i="1"/>
-  <c r="K65" i="1"/>
-  <c r="K64" i="1"/>
-  <c r="K63" i="1"/>
-  <c r="K62" i="1"/>
-  <c r="K61" i="1"/>
-  <c r="K60" i="1"/>
-  <c r="K59" i="1"/>
-  <c r="K58" i="1"/>
-  <c r="K57" i="1"/>
-  <c r="K56" i="1"/>
-  <c r="K55" i="1"/>
-  <c r="K54" i="1"/>
-  <c r="K53" i="1"/>
-  <c r="K52" i="1"/>
-  <c r="K51" i="1"/>
-  <c r="K50" i="1"/>
-  <c r="K49" i="1"/>
-  <c r="K48" i="1"/>
-  <c r="K47" i="1"/>
-  <c r="K46" i="1"/>
-  <c r="K45" i="1"/>
-  <c r="K44" i="1"/>
-  <c r="K43" i="1"/>
-  <c r="K42" i="1"/>
-  <c r="K41" i="1"/>
-  <c r="K40" i="1"/>
-  <c r="K39" i="1"/>
-  <c r="K38" i="1"/>
-  <c r="K37" i="1"/>
-  <c r="K36" i="1"/>
-  <c r="K35" i="1"/>
-  <c r="K34" i="1"/>
-  <c r="K33" i="1"/>
-  <c r="K32" i="1"/>
-  <c r="K31" i="1"/>
-  <c r="K30" i="1"/>
-  <c r="K29" i="1"/>
-  <c r="K28" i="1"/>
-  <c r="K27" i="1"/>
-  <c r="K26" i="1"/>
-  <c r="K25" i="1"/>
-  <c r="K24" i="1"/>
-  <c r="K23" i="1"/>
-  <c r="K22" i="1"/>
-  <c r="K21" i="1"/>
-  <c r="K20" i="1"/>
-  <c r="K19" i="1"/>
-  <c r="K18" i="1"/>
-  <c r="K17" i="1"/>
-  <c r="K16" i="1"/>
-  <c r="K15" i="1"/>
-  <c r="K14" i="1"/>
-  <c r="K13" i="1"/>
-  <c r="K12" i="1"/>
-  <c r="K11" i="1"/>
-  <c r="K10" i="1"/>
-  <c r="K9" i="1"/>
-  <c r="K8" i="1"/>
-  <c r="K5" i="1"/>
-  <c r="K4" i="1"/>
-  <c r="B2" i="1"/>
-  <c r="B3" i="1"/>
-  <c r="B4" i="1"/>
-  <c r="B5" i="1"/>
-  <c r="B6" i="1"/>
-  <c r="B7" i="1"/>
-  <c r="B9" i="1"/>
-  <c r="B10" i="1"/>
-  <c r="B11" i="1"/>
-  <c r="B12" i="1"/>
-  <c r="B13" i="1"/>
-  <c r="B14" i="1"/>
-  <c r="B15" i="1"/>
-  <c r="B16" i="1"/>
-  <c r="B17" i="1"/>
-  <c r="B18" i="1"/>
-  <c r="B19" i="1"/>
-  <c r="B20" i="1"/>
-  <c r="B21" i="1"/>
-  <c r="B22" i="1"/>
-  <c r="B23" i="1"/>
-  <c r="B24" i="1"/>
-  <c r="B25" i="1"/>
-  <c r="B26" i="1"/>
-  <c r="B27" i="1"/>
-  <c r="B28" i="1"/>
-  <c r="B29" i="1"/>
-  <c r="B30" i="1"/>
-  <c r="B31" i="1"/>
-  <c r="B32" i="1"/>
-  <c r="B33" i="1"/>
-  <c r="B34" i="1"/>
-  <c r="B35" i="1"/>
-  <c r="B36" i="1"/>
-  <c r="B37" i="1"/>
-  <c r="B38" i="1"/>
-  <c r="B39" i="1"/>
-  <c r="B40" i="1"/>
-  <c r="B41" i="1"/>
-  <c r="B42" i="1"/>
-  <c r="B43" i="1"/>
-  <c r="B44" i="1"/>
-  <c r="B45" i="1"/>
-  <c r="B46" i="1"/>
-  <c r="B47" i="1"/>
-  <c r="B48" i="1"/>
-  <c r="B49" i="1"/>
-  <c r="B50" i="1"/>
-  <c r="B51" i="1"/>
-  <c r="B52" i="1"/>
-  <c r="B53" i="1"/>
-  <c r="B54" i="1"/>
-  <c r="B55" i="1"/>
-  <c r="B56" i="1"/>
-  <c r="B57" i="1"/>
-  <c r="B58" i="1"/>
-  <c r="B59" i="1"/>
-  <c r="B60" i="1"/>
-  <c r="B61" i="1"/>
-  <c r="B62" i="1"/>
-  <c r="B63" i="1"/>
-  <c r="B64" i="1"/>
-  <c r="B65" i="1"/>
-  <c r="B66" i="1"/>
-  <c r="B67" i="1"/>
-  <c r="B68" i="1"/>
-  <c r="B69" i="1"/>
-  <c r="B70" i="1"/>
-  <c r="B71" i="1"/>
-  <c r="B72" i="1"/>
-  <c r="B73" i="1"/>
-  <c r="B74" i="1"/>
-  <c r="B75" i="1"/>
-  <c r="B76" i="1"/>
-  <c r="B77" i="1"/>
-  <c r="B78" i="1"/>
-  <c r="B79" i="1"/>
-  <c r="B80" i="1"/>
-  <c r="B81" i="1"/>
-  <c r="B82" i="1"/>
-  <c r="B83" i="1"/>
-  <c r="B84" i="1"/>
-  <c r="B85" i="1"/>
-  <c r="B86" i="1"/>
-  <c r="B87" i="1"/>
-  <c r="B88" i="1"/>
-  <c r="B89" i="1"/>
-  <c r="B90" i="1"/>
-  <c r="B91" i="1"/>
-  <c r="B92" i="1"/>
-  <c r="B93" i="1"/>
-  <c r="B94" i="1"/>
-  <c r="B95" i="1"/>
-  <c r="B96" i="1"/>
-  <c r="B97" i="1"/>
-  <c r="B98" i="1"/>
-  <c r="B99" i="1"/>
-  <c r="B100" i="1"/>
-  <c r="B101" i="1"/>
   <c r="B2" i="2" l="1"/>
   <c r="B3" i="2"/>
   <c r="B4" i="2"/>
@@ -359,6 +160,204 @@
   <c r="B99" i="2"/>
   <c r="B100" i="2"/>
   <c r="B101" i="2"/>
+  <c r="K7" i="1"/>
+  <c r="K6" i="1"/>
+  <c r="K2" i="1"/>
+  <c r="K3" i="1"/>
+  <c r="K101" i="1"/>
+  <c r="K100" i="1"/>
+  <c r="K99" i="1"/>
+  <c r="K98" i="1"/>
+  <c r="K97" i="1"/>
+  <c r="K96" i="1"/>
+  <c r="K95" i="1"/>
+  <c r="K94" i="1"/>
+  <c r="K93" i="1"/>
+  <c r="K92" i="1"/>
+  <c r="K91" i="1"/>
+  <c r="K90" i="1"/>
+  <c r="K89" i="1"/>
+  <c r="K88" i="1"/>
+  <c r="K87" i="1"/>
+  <c r="K86" i="1"/>
+  <c r="K85" i="1"/>
+  <c r="K84" i="1"/>
+  <c r="K83" i="1"/>
+  <c r="K82" i="1"/>
+  <c r="K81" i="1"/>
+  <c r="K80" i="1"/>
+  <c r="K79" i="1"/>
+  <c r="K78" i="1"/>
+  <c r="K77" i="1"/>
+  <c r="K76" i="1"/>
+  <c r="K75" i="1"/>
+  <c r="K74" i="1"/>
+  <c r="K73" i="1"/>
+  <c r="K72" i="1"/>
+  <c r="K71" i="1"/>
+  <c r="K70" i="1"/>
+  <c r="K69" i="1"/>
+  <c r="K68" i="1"/>
+  <c r="K67" i="1"/>
+  <c r="K66" i="1"/>
+  <c r="K65" i="1"/>
+  <c r="K64" i="1"/>
+  <c r="K63" i="1"/>
+  <c r="K62" i="1"/>
+  <c r="K61" i="1"/>
+  <c r="K60" i="1"/>
+  <c r="K59" i="1"/>
+  <c r="K58" i="1"/>
+  <c r="K57" i="1"/>
+  <c r="K56" i="1"/>
+  <c r="K55" i="1"/>
+  <c r="K54" i="1"/>
+  <c r="K53" i="1"/>
+  <c r="K52" i="1"/>
+  <c r="K51" i="1"/>
+  <c r="K50" i="1"/>
+  <c r="K49" i="1"/>
+  <c r="K48" i="1"/>
+  <c r="K47" i="1"/>
+  <c r="K46" i="1"/>
+  <c r="K45" i="1"/>
+  <c r="K44" i="1"/>
+  <c r="K43" i="1"/>
+  <c r="K42" i="1"/>
+  <c r="K41" i="1"/>
+  <c r="K40" i="1"/>
+  <c r="K39" i="1"/>
+  <c r="K38" i="1"/>
+  <c r="K37" i="1"/>
+  <c r="K36" i="1"/>
+  <c r="K35" i="1"/>
+  <c r="K34" i="1"/>
+  <c r="K33" i="1"/>
+  <c r="K32" i="1"/>
+  <c r="K31" i="1"/>
+  <c r="K30" i="1"/>
+  <c r="K29" i="1"/>
+  <c r="K28" i="1"/>
+  <c r="K27" i="1"/>
+  <c r="K26" i="1"/>
+  <c r="K25" i="1"/>
+  <c r="K24" i="1"/>
+  <c r="K23" i="1"/>
+  <c r="K22" i="1"/>
+  <c r="K21" i="1"/>
+  <c r="K20" i="1"/>
+  <c r="K19" i="1"/>
+  <c r="K18" i="1"/>
+  <c r="K17" i="1"/>
+  <c r="K16" i="1"/>
+  <c r="K15" i="1"/>
+  <c r="K14" i="1"/>
+  <c r="K13" i="1"/>
+  <c r="K12" i="1"/>
+  <c r="K11" i="1"/>
+  <c r="K10" i="1"/>
+  <c r="K9" i="1"/>
+  <c r="K8" i="1"/>
+  <c r="K5" i="1"/>
+  <c r="K4" i="1"/>
+  <c r="B3" i="1"/>
+  <c r="B4" i="1"/>
+  <c r="B5" i="1"/>
+  <c r="B6" i="1"/>
+  <c r="B7" i="1"/>
+  <c r="B9" i="1"/>
+  <c r="B10" i="1"/>
+  <c r="B11" i="1"/>
+  <c r="B12" i="1"/>
+  <c r="B13" i="1"/>
+  <c r="B14" i="1"/>
+  <c r="B15" i="1"/>
+  <c r="B16" i="1"/>
+  <c r="B17" i="1"/>
+  <c r="B18" i="1"/>
+  <c r="B19" i="1"/>
+  <c r="B20" i="1"/>
+  <c r="B21" i="1"/>
+  <c r="B22" i="1"/>
+  <c r="B23" i="1"/>
+  <c r="B24" i="1"/>
+  <c r="B25" i="1"/>
+  <c r="B26" i="1"/>
+  <c r="B27" i="1"/>
+  <c r="B28" i="1"/>
+  <c r="B29" i="1"/>
+  <c r="B30" i="1"/>
+  <c r="B31" i="1"/>
+  <c r="B32" i="1"/>
+  <c r="B33" i="1"/>
+  <c r="B34" i="1"/>
+  <c r="B35" i="1"/>
+  <c r="B36" i="1"/>
+  <c r="B37" i="1"/>
+  <c r="B38" i="1"/>
+  <c r="B39" i="1"/>
+  <c r="B40" i="1"/>
+  <c r="B41" i="1"/>
+  <c r="B42" i="1"/>
+  <c r="B43" i="1"/>
+  <c r="B44" i="1"/>
+  <c r="B45" i="1"/>
+  <c r="B46" i="1"/>
+  <c r="B47" i="1"/>
+  <c r="B48" i="1"/>
+  <c r="B49" i="1"/>
+  <c r="B50" i="1"/>
+  <c r="B51" i="1"/>
+  <c r="B52" i="1"/>
+  <c r="B53" i="1"/>
+  <c r="B54" i="1"/>
+  <c r="B55" i="1"/>
+  <c r="B56" i="1"/>
+  <c r="B57" i="1"/>
+  <c r="B58" i="1"/>
+  <c r="B59" i="1"/>
+  <c r="B60" i="1"/>
+  <c r="B61" i="1"/>
+  <c r="B62" i="1"/>
+  <c r="B63" i="1"/>
+  <c r="B64" i="1"/>
+  <c r="B65" i="1"/>
+  <c r="B66" i="1"/>
+  <c r="B67" i="1"/>
+  <c r="B68" i="1"/>
+  <c r="B69" i="1"/>
+  <c r="B70" i="1"/>
+  <c r="B71" i="1"/>
+  <c r="B72" i="1"/>
+  <c r="B73" i="1"/>
+  <c r="B74" i="1"/>
+  <c r="B75" i="1"/>
+  <c r="B76" i="1"/>
+  <c r="B77" i="1"/>
+  <c r="B78" i="1"/>
+  <c r="B79" i="1"/>
+  <c r="B80" i="1"/>
+  <c r="B81" i="1"/>
+  <c r="B82" i="1"/>
+  <c r="B83" i="1"/>
+  <c r="B84" i="1"/>
+  <c r="B85" i="1"/>
+  <c r="B86" i="1"/>
+  <c r="B87" i="1"/>
+  <c r="B88" i="1"/>
+  <c r="B89" i="1"/>
+  <c r="B90" i="1"/>
+  <c r="B91" i="1"/>
+  <c r="B92" i="1"/>
+  <c r="B93" i="1"/>
+  <c r="B94" i="1"/>
+  <c r="B95" i="1"/>
+  <c r="B96" i="1"/>
+  <c r="B97" i="1"/>
+  <c r="B98" i="1"/>
+  <c r="B99" i="1"/>
+  <c r="B100" i="1"/>
+  <c r="B101" i="1"/>
 </calcChain>
 </file>
 
@@ -367,7 +366,7 @@
 </file>
 
 <file path=Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener/xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="404">
   <si>
     <t>ID</t>
   </si>
@@ -1576,6 +1575,9 @@
   </si>
   <si>
     <t>S1_000082</t>
+  </si>
+  <si>
+    <t>Goofy</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
@@ -1696,9 +1698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,13 +1705,40 @@
   <dxfs count="23">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1723,6 +1749,10 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1762,31 +1792,7 @@
       <alignment horizontal="left" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1796,7 +1802,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1806,13 +1812,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1829,22 +1828,22 @@
 </file>
 
 <file path=Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener/xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{130F8B8F-D407-43B8-A880-7578C5A01AEF}" name="Table1" displayName="Table1" ref="A1:K101" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{130F8B8F-D407-43B8-A880-7578C5A01AEF}" name="Table1" displayName="Table1" ref="A1:K101" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21">
   <autoFilter ref="A1:K101" xr:uid="{130F8B8F-D407-43B8-A880-7578C5A01AEF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AE0AB6AE-A47C-46EF-8991-64C6463CD4F8}" name="ID" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{8BC4FC51-3BEA-4A08-AE36-2F1BC13CBCCD}" name="Selector" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{AE0AB6AE-A47C-46EF-8991-64C6463CD4F8}" name="ID" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{8BC4FC51-3BEA-4A08-AE36-2F1BC13CBCCD}" name="Selector" dataDxfId="18">
       <calculatedColumnFormula>"Dummy_"&amp;Table1[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{85184C7D-DCB9-42BA-A488-C12ABDA8EFE9}" name="Ref:srcLastSaved" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6DC90CBB-8D95-4FE2-902C-199AC5BD0806}" name="Ref" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2DC4BB74-4145-4AD5-88DC-B2D40A96C076}" name="Ref2:srcLastSaved" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{360F9577-D113-4065-BB1C-1E67D583DE3F}" name="Ref2" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{513F75D8-2F10-4DB2-91C0-6213E3DDBE80}" name="Ref3:srcLAstSaved" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C6463962-1A1E-4874-91BD-6A9B2219898A}" name="Ref3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{034CF0D5-14AD-43A5-A523-15F860D0CC58}" name="IntraS1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5062B6FF-A7E9-4E20-B4DC-C04D04C4C16E}" name="IntraRef1:src" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{FAC54EAF-93FC-471F-A3F9-03B2F02A71DF}" name="IntraRef1" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{85184C7D-DCB9-42BA-A488-C12ABDA8EFE9}" name="Ref:srcLastSaved" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6DC90CBB-8D95-4FE2-902C-199AC5BD0806}" name="Ref" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{2DC4BB74-4145-4AD5-88DC-B2D40A96C076}" name="Ref2:srcLastSaved" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{360F9577-D113-4065-BB1C-1E67D583DE3F}" name="Ref2" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{513F75D8-2F10-4DB2-91C0-6213E3DDBE80}" name="Ref3:srcLAstSaved" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{C6463962-1A1E-4874-91BD-6A9B2219898A}" name="Ref3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{034CF0D5-14AD-43A5-A523-15F860D0CC58}" name="IntraS1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5062B6FF-A7E9-4E20-B4DC-C04D04C4C16E}" name="IntraRef1:src" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{FAC54EAF-93FC-471F-A3F9-03B2F02A71DF}" name="IntraRef1" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
         INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
@@ -1854,19 +1853,19 @@
 </file>
 
 <file path=Book100_v10_RETEST_withV41ReferenceManagement_intraRefWithListener/xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB3DCF18-2BE8-48FE-A57B-2A65F9B11CD5}" name="Table2" displayName="Table2" ref="A1:F101" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB3DCF18-2BE8-48FE-A57B-2A65F9B11CD5}" name="Table2" displayName="Table2" ref="A1:F101" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A1:F101" xr:uid="{BB3DCF18-2BE8-48FE-A57B-2A65F9B11CD5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{850E40B1-FD5B-4F56-B475-C71D367C7C5B}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7601C884-6319-4BCC-8EB6-F7163D882513}" name="Selector" dataDxfId="17">
-      <calculatedColumnFormula>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{850E40B1-FD5B-4F56-B475-C71D367C7C5B}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7601C884-6319-4BCC-8EB6-F7163D882513}" name="Selector" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4C655D68-2506-4921-8B27-4BC0733AB5BC}" name="Selector3" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{4C655D68-2506-4921-8B27-4BC0733AB5BC}" name="Selector3" dataDxfId="4">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"_"&amp;Table2[[#This Row],[Part3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4385B30F-6B80-4C65-B665-97859B097541}" name="Part1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E3D2BD82-7536-4613-9426-34935924DE12}" name="Part2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{AAB1B7D7-82AA-4473-B07D-46B0F3317CE6}" name="Part3" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4385B30F-6B80-4C65-B665-97859B097541}" name="Part1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E3D2BD82-7536-4613-9426-34935924DE12}" name="Part2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AAB1B7D7-82AA-4473-B07D-46B0F3317CE6}" name="Part3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2196,9 +2195,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54e312b60f6066ea/20200319/20200319 PROJECTS/veri.excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DE4EE094-62F9-4508-9044-2DAB7D3BB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F89A30-C97D-4D3A-808F-0B14E5723178}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{DE4EE094-62F9-4508-9044-2DAB7D3BB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989C5EE0-3B8B-4F2E-B7D7-42B76B26637F}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="15630" xr2:uid="{5F202DD4-F6ED-4666-ABF4-39EC92EA315B}"/>
+    <workbookView xWindow="11670" yWindow="0" windowWidth="18250" windowHeight="21000" activeTab="1" xr2:uid="{5F202DD4-F6ED-4666-ABF4-39EC92EA315B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -2230,25 +2229,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="18.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="18.54296875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="71.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2283,13 +2282,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="str">
-        <f>"Dummy_"&amp;Table1[[#This Row],[ID]]</f>
-        <v>Dummy_1</v>
+      <c r="B2" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>308</v>
@@ -2300,13 +2298,13 @@
       <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
         INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2317,13 +2315,13 @@
       <c r="D3" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2334,13 +2332,13 @@
       <c r="D4" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K4" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2357,13 +2355,13 @@
       <c r="I5" s="8">
         <v>7</v>
       </c>
-      <c r="K5" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>S1_000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2409,7 +2407,7 @@
         <v>S1_000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2422,13 +2420,13 @@
       <c r="H8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2442,13 +2440,13 @@
       <c r="H9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2465,13 +2463,13 @@
       <c r="H10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2488,13 +2486,13 @@
       <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2508,13 +2506,13 @@
       <c r="H12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2528,13 +2526,13 @@
       <c r="H13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2548,13 +2546,13 @@
       <c r="H14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2571,13 +2569,13 @@
       <c r="I15" s="8">
         <v>8</v>
       </c>
-      <c r="K15" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2594,13 +2592,13 @@
       <c r="H16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2614,13 +2612,13 @@
       <c r="H17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2634,13 +2632,13 @@
       <c r="H18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2654,13 +2652,13 @@
       <c r="H19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2677,13 +2675,13 @@
       <c r="I20" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K20" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2700,13 +2698,13 @@
       <c r="I21" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K21" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2723,13 +2721,13 @@
       <c r="I22" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="K22" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2746,13 +2744,13 @@
       <c r="I23" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="K23" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2769,13 +2767,13 @@
       <c r="I24" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="K24" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2792,13 +2790,13 @@
       <c r="I25" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="K25" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2815,13 +2813,13 @@
       <c r="I26" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="K26" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2838,13 +2836,13 @@
       <c r="I27" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="K27" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2861,13 +2859,13 @@
       <c r="I28" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="K28" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2884,13 +2882,13 @@
       <c r="I29" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="K29" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2907,13 +2905,13 @@
       <c r="I30" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="K30" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2930,13 +2928,13 @@
       <c r="I31" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="K31" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2953,13 +2951,13 @@
       <c r="I32" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="K32" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2976,13 +2974,13 @@
       <c r="I33" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="K33" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2999,13 +2997,13 @@
       <c r="I34" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3022,13 +3020,13 @@
       <c r="I35" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="K35" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3045,13 +3043,13 @@
       <c r="I36" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="K36" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3068,13 +3066,13 @@
       <c r="I37" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="K37" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3091,13 +3089,13 @@
       <c r="I38" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="K38" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3114,13 +3112,13 @@
       <c r="I39" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="K39" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3137,13 +3135,13 @@
       <c r="I40" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="K40" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3160,13 +3158,13 @@
       <c r="I41" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="K41" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3183,13 +3181,13 @@
       <c r="I42" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K42" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3206,13 +3204,13 @@
       <c r="I43" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="K43" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3229,13 +3227,13 @@
       <c r="I44" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K44" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3252,13 +3250,13 @@
       <c r="I45" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="K45" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3275,13 +3273,13 @@
       <c r="I46" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="K46" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3298,13 +3296,13 @@
       <c r="I47" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="K47" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3321,13 +3319,13 @@
       <c r="I48" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="K48" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3344,13 +3342,13 @@
       <c r="I49" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="K49" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3367,13 +3365,13 @@
       <c r="I50" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="K50" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3390,13 +3388,13 @@
       <c r="I51" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="K51" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3413,13 +3411,13 @@
       <c r="I52" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="K52" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3436,13 +3434,13 @@
       <c r="I53" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="K53" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3459,13 +3457,13 @@
       <c r="I54" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="K54" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3482,13 +3480,13 @@
       <c r="I55" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="K55" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3505,13 +3503,13 @@
       <c r="I56" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="K56" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3528,13 +3526,13 @@
       <c r="I57" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="K57" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3551,13 +3549,13 @@
       <c r="I58" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K58" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3574,13 +3572,13 @@
       <c r="I59" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="K59" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3597,13 +3595,13 @@
       <c r="I60" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K60" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3620,13 +3618,13 @@
       <c r="I61" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="K61" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3643,13 +3641,13 @@
       <c r="I62" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="K62" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3666,13 +3664,13 @@
       <c r="I63" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="K63" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3689,13 +3687,13 @@
       <c r="I64" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="K64" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3712,13 +3710,13 @@
       <c r="I65" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="K65" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3735,13 +3733,13 @@
       <c r="I66" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="K66" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -3758,13 +3756,13 @@
       <c r="I67" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="K67" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -3781,13 +3779,13 @@
       <c r="I68" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="K68" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -3804,13 +3802,13 @@
       <c r="I69" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="K69" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -3827,13 +3825,13 @@
       <c r="I70" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="K70" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -3850,13 +3848,13 @@
       <c r="I71" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="K71" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -3873,13 +3871,13 @@
       <c r="I72" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="K72" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -3896,13 +3894,13 @@
       <c r="I73" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="K73" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -3919,13 +3917,13 @@
       <c r="I74" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="K74" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -3942,13 +3940,13 @@
       <c r="I75" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="K75" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -3965,13 +3963,13 @@
       <c r="I76" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="K76" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -3988,13 +3986,13 @@
       <c r="I77" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="K77" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4011,13 +4009,13 @@
       <c r="I78" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="K78" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4034,13 +4032,13 @@
       <c r="I79" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="K79" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4057,13 +4055,13 @@
       <c r="I80" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="K80" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4080,13 +4078,13 @@
       <c r="I81" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="K81" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4103,13 +4101,13 @@
       <c r="I82" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K82" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4126,13 +4124,13 @@
       <c r="I83" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="K83" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4149,13 +4147,13 @@
       <c r="I84" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="K84" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4172,13 +4170,13 @@
       <c r="I85" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="K85" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4195,13 +4193,13 @@
       <c r="I86" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="K86" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4218,13 +4216,13 @@
       <c r="I87" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="K87" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -4241,13 +4239,13 @@
       <c r="I88" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="K88" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4264,13 +4262,13 @@
       <c r="I89" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K89" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4287,13 +4285,13 @@
       <c r="I90" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="K90" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4310,13 +4308,13 @@
       <c r="I91" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="K91" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -4333,13 +4331,13 @@
       <c r="I92" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="K92" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -4356,13 +4354,13 @@
       <c r="I93" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="K93" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4379,13 +4377,13 @@
       <c r="I94" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="K94" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4402,13 +4400,13 @@
       <c r="I95" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K95" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -4425,13 +4423,13 @@
       <c r="I96" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K96" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4448,13 +4446,13 @@
       <c r="I97" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K97" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4471,13 +4469,13 @@
       <c r="I98" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="K98" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4494,13 +4492,13 @@
       <c r="I99" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="K99" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -4517,13 +4515,13 @@
       <c r="I100" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="K100" s="9" t="str">
-        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
-        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="8" t="str">
+        <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
+        INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4540,7 +4538,7 @@
       <c r="I101" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="K101" s="9" t="str">
+      <c r="K101" s="8" t="str">
         <f xml:space="preserve"> IF( TRIM( Table1[[#This Row],[IntraRef1:src]] ) = "", "",
         INDEX( Table1[IntraS1], MATCH( Table1[[#This Row],[IntraRef1:src]], Table1[ID], 0 ) ) )</f>
         <v/>
@@ -4568,19 +4566,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD100000"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4600,13 +4598,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1000001</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v/>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>Goofy</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>207</v>
@@ -4615,13 +4613,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1000002</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S2_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S2_aaaaaGoofy</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -4633,13 +4631,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1000003</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S3_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S3_aaaaaGoofy</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -4651,13 +4649,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1000004</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S4_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S4_aaaaaGoofy</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -4669,13 +4667,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1000005</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S5_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S5_aaaaaGoofy</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -4687,13 +4685,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1000006</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S6_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S6_aaaaaGoofy</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -4705,13 +4703,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1000007</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S7_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S7_aaaaaGoofy</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -4723,13 +4721,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1000008</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S8_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S8_aaaaaGoofy</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -4741,13 +4739,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1000009</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S9_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S9_aaaaaGoofy</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -4759,13 +4757,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1000010</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S10_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S10_aaaaaGoofy</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -4777,13 +4775,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1000011</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S11_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S11_aaaaaGoofy</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -4795,13 +4793,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1000012</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S12_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S12_aaaaaGoofy</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -4813,13 +4811,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1000013</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S13_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S13_aaaaaGoofy</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -4831,13 +4829,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1000014</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S14_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S14_aaaaaGoofy</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
@@ -4849,13 +4847,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1000015</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S15_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S15_aaaaaGoofy</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
@@ -4867,13 +4865,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1000016</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S16_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S16_aaaaaGoofy</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -4885,13 +4883,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1000017</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S17_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S17_aaaaaGoofy</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -4903,13 +4901,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1000018</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S18_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S18_aaaaaGoofy</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4921,13 +4919,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1000019</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S19_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S19_aaaaaGoofy</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>21</v>
@@ -4939,13 +4937,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1000020</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S20_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S20_aaaaaGoofy</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -4957,13 +4955,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1000021</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S21_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S21_aaaaaGoofy</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
@@ -4975,13 +4973,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1000022</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S22_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S22_aaaaaGoofy</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -4993,13 +4991,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1000023</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S23_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S23_aaaaaGoofy</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>25</v>
@@ -5011,13 +5009,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1000024</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S24_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S24_aaaaaGoofy</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>26</v>
@@ -5029,13 +5027,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1000025</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S25_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S25_aaaaaGoofy</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>27</v>
@@ -5047,13 +5045,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1000026</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S26_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S26_aaaaaGoofy</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -5065,13 +5063,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1000027</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S27_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S27_aaaaaGoofy</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -5083,13 +5081,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1000028</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S28_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S28_aaaaaGoofy</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>30</v>
@@ -5101,13 +5099,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1000029</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S29_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S29_aaaaaGoofy</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>31</v>
@@ -5119,13 +5117,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1000030</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S30_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S30_aaaaaGoofy</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
@@ -5137,13 +5135,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1000031</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S31_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S31_aaaaaGoofy</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -5155,13 +5153,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1000032</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S32_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S32_aaaaaGoofy</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -5173,13 +5171,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1000033</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S33_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S33_aaaaaGoofy</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>35</v>
@@ -5191,13 +5189,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1000034</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S34_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S34_aaaaaGoofy</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>36</v>
@@ -5209,13 +5207,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1000035</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S35_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S35_aaaaaGoofy</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -5227,13 +5225,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1000036</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S36_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S36_aaaaaGoofy</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>38</v>
@@ -5245,13 +5243,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1000037</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S37_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S37_aaaaaGoofy</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -5263,13 +5261,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1000038</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S38_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S38_aaaaaGoofy</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>40</v>
@@ -5281,13 +5279,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1000039</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S39_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S39_aaaaaGoofy</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -5299,13 +5297,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1000040</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S40_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S40_aaaaaGoofy</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -5317,13 +5315,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1000041</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S41_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S41_aaaaaGoofy</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -5335,13 +5333,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1000042</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S42_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S42_aaaaaGoofy</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -5353,13 +5351,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1000043</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S43_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S43_aaaaaGoofy</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -5371,13 +5369,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1000044</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S44_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S44_aaaaaGoofy</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
@@ -5389,13 +5387,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1000045</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S45_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S45_aaaaaGoofy</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -5407,13 +5405,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1000046</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S46_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S46_aaaaaGoofy</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>48</v>
@@ -5425,13 +5423,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1000047</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S47_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S47_aaaaaGoofy</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>49</v>
@@ -5443,13 +5441,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1000048</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S48_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S48_aaaaaGoofy</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>50</v>
@@ -5461,13 +5459,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1000049</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S49_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S49_aaaaaGoofy</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>51</v>
@@ -5479,13 +5477,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1000050</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S50_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S50_aaaaaGoofy</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>52</v>
@@ -5497,13 +5495,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1000051</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S51_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S51_aaaaaGoofy</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>53</v>
@@ -5515,13 +5513,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1000052</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S52_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S52_aaaaaGoofy</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>54</v>
@@ -5533,13 +5531,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1000053</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S53_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S53_aaaaaGoofy</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>55</v>
@@ -5551,13 +5549,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1000054</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S54_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S54_aaaaaGoofy</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>56</v>
@@ -5569,13 +5567,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1000055</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S55_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S55_aaaaaGoofy</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>57</v>
@@ -5587,13 +5585,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1000056</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S56_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S56_aaaaaGoofy</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>58</v>
@@ -5605,13 +5603,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1000057</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S57_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S57_aaaaaGoofy</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>59</v>
@@ -5623,13 +5621,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1000058</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S58_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S58_aaaaaGoofy</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>60</v>
@@ -5641,13 +5639,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1000059</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S59_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S59_aaaaaGoofy</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>61</v>
@@ -5659,13 +5657,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1000060</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S60_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S60_aaaaaGoofy</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>62</v>
@@ -5677,13 +5675,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1000061</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S61_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S61_aaaaaGoofy</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>63</v>
@@ -5695,13 +5693,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1000062</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S62_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S62_aaaaaGoofy</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>64</v>
@@ -5713,13 +5711,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1000063</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S63_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S63_aaaaaGoofy</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>65</v>
@@ -5731,13 +5729,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1000064</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S64_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S64_aaaaaGoofy</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>66</v>
@@ -5749,13 +5747,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1000065</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S65_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S65_aaaaaGoofy</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>67</v>
@@ -5767,13 +5765,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1000066</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S66_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S66_aaaaaGoofy</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>68</v>
@@ -5785,13 +5783,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1000067</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S67_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S67_aaaaaGoofy</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>69</v>
@@ -5803,13 +5801,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1000068</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S68_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S68_aaaaaGoofy</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>70</v>
@@ -5821,13 +5819,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1000069</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S69_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S69_aaaaaGoofy</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>71</v>
@@ -5839,13 +5837,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1000070</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S70_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S70_aaaaaGoofy</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>72</v>
@@ -5857,13 +5855,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1000071</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S71_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S71_aaaaaGoofy</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>73</v>
@@ -5875,13 +5873,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1000072</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S72_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S72_aaaaaGoofy</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>74</v>
@@ -5893,13 +5891,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1000073</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S73_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S73_aaaaaGoofy</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>75</v>
@@ -5911,13 +5909,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1000074</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S74_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S74_aaaaaGoofy</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>76</v>
@@ -5929,13 +5927,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>1000075</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S75_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S75_aaaaaGoofy</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>77</v>
@@ -5947,13 +5945,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>1000076</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S76_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S76_aaaaaGoofy</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>78</v>
@@ -5965,13 +5963,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1000077</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S77_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S77_aaaaaGoofy</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>79</v>
@@ -5983,13 +5981,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1000078</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S78_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S78_aaaaaGoofy</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>80</v>
@@ -6001,13 +5999,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1000079</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S79_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S79_aaaaaGoofy</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>81</v>
@@ -6019,13 +6017,13 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>1000080</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S80_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S80_aaaaaGoofy</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>82</v>
@@ -6037,13 +6035,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>1000081</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S81_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S81_aaaaaGoofy</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>83</v>
@@ -6055,13 +6053,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>1000082</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S82_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S82_aaaaaGoofy</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>84</v>
@@ -6073,13 +6071,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1000083</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S83_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S83_aaaaaGoofy</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>85</v>
@@ -6091,13 +6089,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1000084</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S84_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S84_aaaaaGoofy</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>86</v>
@@ -6109,13 +6107,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1000085</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S85_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S85_aaaaaGoofy</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>87</v>
@@ -6127,13 +6125,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1000086</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S86_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S86_aaaaaGoofy</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>88</v>
@@ -6145,13 +6143,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>1000087</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S87_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S87_aaaaaGoofy</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>89</v>
@@ -6163,13 +6161,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>1000088</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S88_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S88_aaaaaGoofy</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>90</v>
@@ -6181,13 +6179,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>1000089</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S89_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S89_aaaaaGoofy</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>91</v>
@@ -6199,13 +6197,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>1000090</v>
       </c>
       <c r="B91" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S90_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S90_aaaaaGoofy</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>92</v>
@@ -6217,13 +6215,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>1000091</v>
       </c>
       <c r="B92" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S91_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S91_aaaaaGoofy</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>93</v>
@@ -6235,13 +6233,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1000092</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S92_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S92_aaaaaGoofy</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>94</v>
@@ -6253,13 +6251,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>1000093</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S93_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S93_aaaaaGoofy</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>95</v>
@@ -6271,13 +6269,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>1000094</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S94_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S94_aaaaaGoofy</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>96</v>
@@ -6289,13 +6287,13 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>1000095</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S95_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S95_aaaaaGoofy</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>97</v>
@@ -6307,13 +6305,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>1000096</v>
       </c>
       <c r="B97" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S96_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S96_aaaaaGoofy</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>98</v>
@@ -6325,13 +6323,13 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>1000097</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S97_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S97_aaaaaGoofy</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>99</v>
@@ -6343,13 +6341,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>1000098</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S98_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S98_aaaaaGoofy</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>100</v>
@@ -6361,13 +6359,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>1000099</v>
       </c>
       <c r="B100" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S99_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S99_aaaaaGoofy</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>101</v>
@@ -6379,13 +6377,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>1000100</v>
       </c>
       <c r="B101" s="2" t="str">
-        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])</f>
-        <v>S100_aaaaa</v>
+        <f>IF(Table2[[#This Row],[Part1]]="","",Table2[[#This Row],[Part1]]&amp;"_"&amp;Table2[[#This Row],[Part2]])&amp;"Goofy"</f>
+        <v>S100_aaaaaGoofy</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>102</v>
